--- a/brouillons/multi-tache/multi-tache.xlsx
+++ b/brouillons/multi-tache/multi-tache.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -165,6 +165,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -205,6 +217,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -240,21 +264,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142713608"/>
-        <c:axId val="2142716632"/>
+        <c:axId val="-2126934472"/>
+        <c:axId val="-2126939128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142713608"/>
+        <c:axId val="-2126934472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142716632"/>
+        <c:crossAx val="-2126939128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -262,9 +285,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142716632"/>
+        <c:axId val="-2126939128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -273,13 +297,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142713608"/>
+        <c:crossAx val="-2126934472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -330,6 +354,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -370,6 +406,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -405,21 +453,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142973352"/>
-        <c:axId val="2142976328"/>
+        <c:axId val="-2126855944"/>
+        <c:axId val="-2126853032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142973352"/>
+        <c:axId val="-2126855944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de projets simultanés</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142976328"/>
+        <c:crossAx val="-2126853032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -427,26 +493,62 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142976328"/>
+        <c:axId val="-2126853032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> passé</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142973352"/>
+        <c:crossAx val="-2126855944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -464,16 +566,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>452400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>31800</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>782600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>146100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -494,16 +596,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>223800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>146100</xdr:rowOff>
+      <xdr:colOff>515900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -850,7 +952,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/brouillons/multi-tache/multi-tache.xlsx
+++ b/brouillons/multi-tache/multi-tache.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>Nombre de projets</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Temps perdu</t>
+  </si>
+  <si>
+    <t>Temps disponible pour chaque projet</t>
   </si>
 </sst>
 </file>
@@ -76,8 +79,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -102,7 +111,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -113,6 +122,9 @@
     <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -123,6 +135,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -264,20 +279,68 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126934472"/>
-        <c:axId val="-2126939128"/>
+        <c:axId val="2113898504"/>
+        <c:axId val="2113906552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126934472"/>
+        <c:axId val="2113898504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Nombre de projets simultanés</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(Gerald Weinberg, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:t>Quality Software Management: Vol. 1 System Thinking</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126939128"/>
+        <c:crossAx val="2113906552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -285,7 +348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126939128"/>
+        <c:axId val="2113906552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -293,11 +356,47 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" baseline="0">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t> passé</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1400">
+                  <a:latin typeface="Helvetica Neue"/>
+                  <a:cs typeface="Helvetica Neue"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126934472"/>
+        <c:crossAx val="2113898504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -306,6 +405,19 @@
       <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -453,11 +565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126855944"/>
-        <c:axId val="-2126853032"/>
+        <c:axId val="-2134546696"/>
+        <c:axId val="-2134540808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126855944"/>
+        <c:axId val="-2134546696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -470,12 +582,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>Nombre de projets simultanés</a:t>
                 </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -485,7 +605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126853032"/>
+        <c:crossAx val="-2134540808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -493,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126853032"/>
+        <c:axId val="-2134540808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -508,14 +628,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:rPr>
                   <a:t>Temps</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:rPr lang="fr-FR" sz="1400" baseline="0">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:rPr>
                   <a:t> passé</a:t>
                 </a:r>
               </a:p>
@@ -528,7 +657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126855944"/>
+        <c:crossAx val="-2134546696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -562,20 +691,350 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps disponible pour chaque projet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="6350" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$E$16:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps perdu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="6350" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$E$16:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$16:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2134507992"/>
+        <c:axId val="-2134501960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2134507992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Nombre de projets simultanés</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="fr-FR" sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:rPr>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:t>Gerald Weinberg, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:t>Quality Software Management: Vol. 1 System Thinking</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1400">
+                  <a:latin typeface="Helvetica Neue"/>
+                  <a:cs typeface="Helvetica Neue"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134501960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2134501960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400">
+                    <a:latin typeface="Helvetica Neue"/>
+                    <a:cs typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Temps passé</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134507992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>782600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>146100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>58700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -596,16 +1055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>515900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19100</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -619,6 +1078,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>477800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -949,15 +1438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -979,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -990,7 +1479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1001,7 +1490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1012,7 +1501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1023,7 +1512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1045,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1056,7 +1545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1067,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1078,7 +1567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1089,7 +1578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1099,8 +1588,14 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1116,8 +1611,11 @@
       <c r="F16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1131,10 +1629,13 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1148,10 +1649,13 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1165,10 +1669,13 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1182,7 +1689,56 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
